--- a/code/random_forest-outfiles/cv vs test - RFECV.xlsx
+++ b/code/random_forest-outfiles/cv vs test - RFECV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1316AD3E-CFA8-4972-9DAF-C23AF9956C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8891D196-72EC-432C-BECB-6D4BA7D73ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>['STATEFP', 'NPP_g_m-2_1m_lag', 'month', 'months_from_start', 'popuDensity_ALAND_km2', 'GEOID']</t>
   </si>
@@ -165,46 +165,31 @@
     <t>['STATEFP', 'months_from_start', 'GEOID', 'temp_F', 'month', 'pm25_ug_m-3', 'median_inc']</t>
   </si>
   <si>
-    <t>['popuDensity_ALAND_km2', 'month', 'temp_F', 'median_inc', 'YYYYMM', 'PDSI', 'GEOID', 'Rh_g_m-2', 'SP01']</t>
-  </si>
-  <si>
-    <t>['popuDensity_ALAND_km2', 'YYYYMM', 'SP01', 'GEOID', 'month', 'PDSI', 'pm25_ug_m-3', 'NPP_g_m-2', 'temp_F', 'ALAND_ATOTAL_ratio']</t>
-  </si>
-  <si>
-    <t>['month', 'YYYYMM', 'temp_F', 'median_inc', 'pm25_ug_m-3', 'GEOID', 'popuDensity_ALAND_km2', 'Rh_g_m-2', 'NPP_g_m-2']</t>
-  </si>
-  <si>
-    <t>['PDSI', 'pm25_ug_m-3', 'median_inc', 'SP01', 'GEOID', 'temp_F', 'popuDensity_ALAND_km2', 'NPP_g_m-2', 'YYYYMM']</t>
-  </si>
-  <si>
-    <t>['pm25_ug_m-3', 'temp_F', 'month', 'YYYYMM', 'Rh_g_m-2', 'SP01', 'median_inc', 'ALAND_ATOTAL_ratio', 'GEOID']</t>
-  </si>
-  <si>
-    <t>['Rh_g_m-2', 'NPP_g_m-2', 'GEOID', 'month', 'ALAND_ATOTAL_ratio', 'temp_F', 'median_inc', 'pm25_ug_m-3', 'YYYYMM']</t>
-  </si>
-  <si>
-    <t>['SP01', 'NPP_g_m-2', 'pm25_ug_m-3', 'YYYYMM', 'median_inc', 'Rh_g_m-2', 'month', 'ALAND_ATOTAL_ratio', 'GEOID']</t>
-  </si>
-  <si>
-    <t>['GEOID', 'median_inc', 'ALAND_ATOTAL_ratio', 'Rh_g_m-2', 'PDSI', 'YYYYMM', 'pm25_ug_m-3', 'SP01', 'temp_F']</t>
-  </si>
-  <si>
-    <t>['NPP_g_m-2', 'ALAND_ATOTAL_ratio', 'popuDensity_ALAND_km2', 'pm25_ug_m-3', 'month', 'SP01', 'Rh_g_m-2', 'temp_F', 'PDSI', 'GEOID']</t>
-  </si>
-  <si>
-    <t>['median_inc', 'PDSI', 'month', 'temp_F', 'GEOID', 'SP01', 'pm25_ug_m-3', 'NPP_g_m-2', 'popuDensity_ALAND_km2']</t>
-  </si>
-  <si>
-    <t>['GEOID', 'NPP_g_m-2', 'popuDensity_ALAND_km2', 'pm25_ug_m-3', 'ALAND_ATOTAL_ratio', 'SP01', 'Rh_g_m-2', 'PDSI', 'month', 'median_inc']</t>
-  </si>
-  <si>
-    <t>['temp_F', 'PDSI', 'SP01', 'median_inc', 'GEOID', 'NPP_g_m-2', 'popuDensity_ALAND_km2', 'Rh_g_m-2', 'ALAND_ATOTAL_ratio', 'month']</t>
-  </si>
-  <si>
-    <t>['precip_in', 'PDSI', 'temp_F', 'median_inc', 'SP01', 'NPP_g_m-2', 'Rh_g_m-2', 'GEOID', 'ALAND_ATOTAL_ratio', 'popuDensity_ALAND_km2']</t>
-  </si>
-  <si>
-    <t>Iter. 1</t>
+    <t>['ALAND_ATOTAL_ratio', 'SP01', 'GEOID', 'popuDensity_ALAND_km2', 'NPP_g_m-2', 'months_from_start', 'Rh_g_m-2', 'median_inc', 'month']</t>
+  </si>
+  <si>
+    <t>['NPP_g_m-2', 'temp_F', 'GEOID', 'SP01', 'months_from_start', 'popuDensity_ALAND_km2', 'median_inc', 'month', 'pm25_ug_m-3']</t>
+  </si>
+  <si>
+    <t>['NPP_g_m-2', 'median_inc', 'pm25_ug_m-3', 'popuDensity_ALAND_km2', 'SP01', 'month', 'GEOID', 'temp_F', 'months_from_start']</t>
+  </si>
+  <si>
+    <t>['popuDensity_ALAND_km2', 'Rh_g_m-2', 'month', 'ALAND_ATOTAL_ratio', 'GEOID', 'months_from_start', 'NPP_g_m-2', 'SP01', 'pm25_ug_m-3']</t>
+  </si>
+  <si>
+    <t>['PDSI', 'popuDensity_ALAND_km2', 'NPP_g_m-2', 'month', 'pm25_ug_m-3', 'GEOID', 'SP01', 'Rh_g_m-2', 'months_from_start']</t>
+  </si>
+  <si>
+    <t>['PDSI', 'pm25_ug_m-3', 'median_inc', 'SP01', 'GEOID', 'temp_F', 'popuDensity_ALAND_km2', 'NPP_g_m-2', 'months_from_start']</t>
+  </si>
+  <si>
+    <t>['GEOID', 'Rh_g_m-2', 'months_from_start', 'temp_F', 'PDSI', 'SP01', 'NPP_g_m-2', 'pm25_ug_m-3', 'month']</t>
+  </si>
+  <si>
+    <t>['median_inc', 'Rh_g_m-2', 'pm25_ug_m-3', 'GEOID', 'SP01', 'ALAND_ATOTAL_ratio', 'temp_F', 'month', 'months_from_start']</t>
+  </si>
+  <si>
+    <t>['PDSI', 'temp_F', 'NPP_g_m-2', 'months_from_start', 'Rh_g_m-2', 'SP01', 'median_inc', 'pm25_ug_m-3', 'popuDensity_ALAND_km2']</t>
   </si>
 </sst>
 </file>
@@ -302,7 +287,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -317,10 +302,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$50</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.71706041600000003</c:v>
                 </c:pt>
@@ -403,80 +388,68 @@
                   <c:v>0.70521266800000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0.70509952538095899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70354000564282904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70346090072217404</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.70322926799999996</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>0.70317445999999995</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.70197177033693803</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.70046807474001105</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.69867704109290396</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>0.70209830544289897</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70009396316406203</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.69602065300000004</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>0.69577255500000001</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>0.68005852600000005</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.67670042851267498</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.67344034221895399</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.67261551966174005</c:v>
+                  <c:v>0.67849358494149503</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.67218773718236202</c:v>
+                  <c:v>0.67739091772071203</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0.67520496489729898</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.67174975000000003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>0.67135830299999999</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>0.67082582800000001</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.66792143900000001</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.648778049792057</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.63040107640959997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.62965837566696203</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.62811168579079102</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.62163394863288002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.57820263194773802</c:v>
+                  <c:v>0.46831827774432699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$50</c:f>
+              <c:f>Sheet1!$D$2:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.72188143100000002</c:v>
                 </c:pt>
@@ -559,70 +532,58 @@
                   <c:v>0.70968347200000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0.71078992580238198</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.710141791699332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71013678258165902</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.70871418399999997</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>0.70616159899999997</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.71360998009794097</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.71229883951470196</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.71032620652171696</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>0.70883441616146303</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70644788487207599</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.70047507600000003</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>0.69951994500000003</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>0.67901725400000001</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.687788868487901</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.68560664461408705</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.684678454542337</c:v>
+                  <c:v>0.68678986132410802</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.68492007508796005</c:v>
+                  <c:v>0.68330061306538303</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0.68124685827301801</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.67528113199999995</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>0.67475991199999996</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>0.67596953599999998</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>0.67233329900000005</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.66318831980442405</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.64180415523965395</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.639517034584001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.63844255343352296</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.63124513755802203</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.58667858058049405</c:v>
+                  <c:v>0.47696613104978303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,8 +610,8 @@
         <c:axId val="259601456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.7400000000000001"/>
-          <c:min val="0.56000000000000005"/>
+          <c:max val="0.76000000000000012"/>
+          <c:min val="0.66000000000000014"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -675,20 +636,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="800"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>mean_test_r2</a:t>
                 </a:r>
               </a:p>
@@ -707,16 +668,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -745,16 +706,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -763,14 +724,14 @@
         <c:crossAx val="259601872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="259601872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.7400000000000001"/>
-          <c:min val="0.56000000000000005"/>
+          <c:max val="0.76000000000000012"/>
+          <c:min val="0.66000000000000014"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -802,20 +763,15 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="800" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>test_set_r2_score</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="800">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -839,9 +795,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -870,16 +826,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -921,7 +877,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="800">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1791,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,46 +2998,43 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.70322926799999996</v>
+        <v>0.70509952538095899</v>
       </c>
       <c r="B29">
-        <v>8.0219909999999992E-3</v>
+        <v>7.5769332013387904E-3</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.70871418399999997</v>
+        <v>0.71078992580238198</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H29">
-        <v>0.70292096100000001</v>
+        <v>0.70509952538095899</v>
       </c>
       <c r="I29">
-        <v>0.69814940000000003</v>
+        <v>0.70209934268441698</v>
       </c>
       <c r="J29">
-        <v>0.69957907100000005</v>
+        <v>0.69987351490987104</v>
       </c>
       <c r="K29">
-        <v>0.69866417599999997</v>
+        <v>0.69893298140183002</v>
       </c>
       <c r="L29">
-        <v>0.69716671299999999</v>
+        <v>0.69862544935142801</v>
       </c>
       <c r="M29">
-        <v>0.69499116699999997</v>
+        <v>0.69856774443408798</v>
       </c>
       <c r="N29">
-        <v>0.693544665</v>
-      </c>
-      <c r="O29">
-        <v>0.69179696800000001</v>
+        <v>0.69856128218355196</v>
       </c>
       <c r="P29">
         <v>0.69112415400000005</v>
@@ -3086,46 +3042,43 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.70317445999999995</v>
+        <v>0.70354000564282904</v>
       </c>
       <c r="B30">
-        <v>7.4199340000000004E-3</v>
+        <v>7.5440426104291603E-3</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0.70616159899999997</v>
+        <v>0.710141791699332</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H30">
-        <v>0.70317445999999995</v>
+        <v>0.70229651438642704</v>
       </c>
       <c r="I30">
-        <v>0.69807709100000004</v>
+        <v>0.70095916553872195</v>
       </c>
       <c r="J30">
-        <v>0.69636733399999995</v>
+        <v>0.69863386165055696</v>
       </c>
       <c r="K30">
-        <v>0.69550801100000004</v>
+        <v>0.69708836755180603</v>
       </c>
       <c r="L30">
-        <v>0.69501161899999997</v>
+        <v>0.69645266934958405</v>
       </c>
       <c r="M30">
-        <v>0.69418799200000003</v>
+        <v>0.69606778139818504</v>
       </c>
       <c r="N30">
-        <v>0.69324498899999998</v>
-      </c>
-      <c r="O30">
-        <v>0.69210174199999996</v>
+        <v>0.69602344053846399</v>
       </c>
       <c r="P30">
         <v>0.691612487</v>
@@ -3133,377 +3086,380 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.70197177033693803</v>
+        <v>0.70346090072217404</v>
       </c>
       <c r="B31">
-        <v>6.8551094081364498E-3</v>
+        <v>7.5862922045523201E-3</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0.71360998009794097</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
+        <v>0.71013678258165902</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>0.70197177033693803</v>
+        <v>0.70199023289722295</v>
       </c>
       <c r="I31">
-        <v>0.70192546570118997</v>
+        <v>0.70099429595329898</v>
       </c>
       <c r="J31">
-        <v>0.69936327741597704</v>
+        <v>0.69867142440791197</v>
       </c>
       <c r="K31">
-        <v>0.697654409599752</v>
+        <v>0.69671463182015103</v>
       </c>
       <c r="L31">
-        <v>0.69688443267618405</v>
+        <v>0.69527871770147098</v>
       </c>
       <c r="M31">
-        <v>0.69646525996205899</v>
+        <v>0.694608458382445</v>
       </c>
       <c r="N31">
-        <v>0.69651744283929495</v>
+        <v>0.69425851720579801</v>
+      </c>
+      <c r="P31">
+        <v>0.68771734200000001</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.70046807474001105</v>
+        <v>0.70322926799999996</v>
       </c>
       <c r="B32">
-        <v>6.992214806212E-3</v>
+        <v>8.0219909999999992E-3</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>0.71229883951470196</v>
-      </c>
-      <c r="E32" t="s">
-        <v>55</v>
+        <v>0.70871418399999997</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H32">
-        <v>0.70046807474001105</v>
+        <v>0.70292096100000001</v>
       </c>
       <c r="I32">
-        <v>0.69786914984300896</v>
+        <v>0.69814940000000003</v>
       </c>
       <c r="J32">
-        <v>0.69631663064307303</v>
+        <v>0.69957907100000005</v>
       </c>
       <c r="K32">
-        <v>0.69563315162575601</v>
+        <v>0.69866417599999997</v>
       </c>
       <c r="L32">
-        <v>0.695289667155368</v>
+        <v>0.69716671299999999</v>
       </c>
       <c r="M32">
-        <v>0.69526220923877102</v>
+        <v>0.69499116699999997</v>
+      </c>
+      <c r="N32">
+        <v>0.693544665</v>
+      </c>
+      <c r="O32">
+        <v>0.69179696800000001</v>
+      </c>
+      <c r="P32">
+        <v>0.68850054699999996</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.69867704109290396</v>
+        <v>0.70317445999999995</v>
       </c>
       <c r="B33">
-        <v>6.2917638811406697E-3</v>
+        <v>7.4199340000000004E-3</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>0.71032620652171696</v>
-      </c>
-      <c r="E33" t="s">
-        <v>55</v>
+        <v>0.70616159899999997</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H33">
-        <v>0.69905832505799503</v>
+        <v>0.70317445999999995</v>
       </c>
       <c r="I33">
-        <v>0.69599575068836705</v>
+        <v>0.69807709100000004</v>
       </c>
       <c r="J33">
-        <v>0.69446515463884295</v>
+        <v>0.69636733399999995</v>
       </c>
       <c r="K33">
-        <v>0.69365845651164904</v>
+        <v>0.69550801100000004</v>
       </c>
       <c r="L33">
-        <v>0.69338953354746302</v>
+        <v>0.69501161899999997</v>
       </c>
       <c r="M33">
-        <v>0.69321255654258096</v>
+        <v>0.69418799200000003</v>
       </c>
       <c r="N33">
-        <v>0.69326333308641896</v>
+        <v>0.69324498899999998</v>
+      </c>
+      <c r="O33">
+        <v>0.69210174199999996</v>
+      </c>
+      <c r="P33">
+        <v>0.67007478600000003</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.69602065300000004</v>
+        <v>0.70209830544289897</v>
       </c>
       <c r="B34">
-        <v>6.615241E-3</v>
+        <v>7.41515235562408E-3</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>0.70047507600000003</v>
+        <v>0.70883441616146303</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>0.69602065300000004</v>
+        <v>0.70209830544289897</v>
       </c>
       <c r="I34">
-        <v>0.69345699100000002</v>
+        <v>0.69921456183798503</v>
       </c>
       <c r="J34">
-        <v>0.69265583399999997</v>
+        <v>0.69738707117760301</v>
       </c>
       <c r="K34">
-        <v>0.69235076200000001</v>
+        <v>0.69658078444891203</v>
       </c>
       <c r="L34">
-        <v>0.69106692800000002</v>
+        <v>0.69608965107474796</v>
       </c>
       <c r="M34">
-        <v>0.69016153599999996</v>
+        <v>0.69608478766672</v>
       </c>
       <c r="N34">
-        <v>0.69005107099999996</v>
-      </c>
-      <c r="O34">
-        <v>0.68822208299999998</v>
+        <v>0.69607690223098695</v>
       </c>
       <c r="P34">
-        <v>0.68771734200000001</v>
+        <v>0.66721164799999999</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.69577255500000001</v>
+        <v>0.70009396316406203</v>
       </c>
       <c r="B35">
-        <v>6.8501289999999999E-3</v>
+        <v>7.1435280445375903E-3</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>0.69951994500000003</v>
+        <v>0.70644788487207599</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>0.695123355</v>
+        <v>0.70009396316406203</v>
       </c>
       <c r="I35">
-        <v>0.69455171000000004</v>
+        <v>0.69739210285250197</v>
       </c>
       <c r="J35">
-        <v>0.69330205300000003</v>
+        <v>0.69557131513689896</v>
       </c>
       <c r="K35">
-        <v>0.69248259099999998</v>
+        <v>0.69483166331155799</v>
       </c>
       <c r="L35">
-        <v>0.69227275300000002</v>
+        <v>0.69444169077926199</v>
       </c>
       <c r="M35">
-        <v>0.69074087200000001</v>
+        <v>0.69440786930853204</v>
       </c>
       <c r="N35">
-        <v>0.69048457399999996</v>
-      </c>
-      <c r="O35">
-        <v>0.68891175299999996</v>
+        <v>0.69447176046423098</v>
       </c>
       <c r="P35">
-        <v>0.68850054699999996</v>
+        <v>0.66565043599999996</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.68005852600000005</v>
+        <v>0.69602065300000004</v>
       </c>
       <c r="B36">
-        <v>1.2319102E-2</v>
+        <v>6.615241E-3</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>0.67901725400000001</v>
+        <v>0.70047507600000003</v>
       </c>
       <c r="F36">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H36">
-        <v>0.68026774499999998</v>
+        <v>0.69602065300000004</v>
       </c>
       <c r="I36">
-        <v>0.675478896</v>
+        <v>0.69345699100000002</v>
       </c>
       <c r="J36">
-        <v>0.67319232500000004</v>
+        <v>0.69265583399999997</v>
       </c>
       <c r="K36">
-        <v>0.67708838599999999</v>
+        <v>0.69235076200000001</v>
       </c>
       <c r="L36">
-        <v>0.67585059800000002</v>
+        <v>0.69106692800000002</v>
       </c>
       <c r="M36">
-        <v>0.67417804000000003</v>
+        <v>0.69016153599999996</v>
       </c>
       <c r="N36">
-        <v>0.67204723300000002</v>
+        <v>0.69005107099999996</v>
       </c>
       <c r="O36">
-        <v>0.66997995099999996</v>
+        <v>0.68822208299999998</v>
       </c>
       <c r="P36">
-        <v>0.67007478600000003</v>
+        <v>0.66322441399999998</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.67670042851267498</v>
+        <v>0.69577255500000001</v>
       </c>
       <c r="B37">
-        <v>5.61335987894404E-3</v>
+        <v>6.8501289999999999E-3</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>0.687788868487901</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
+        <v>0.69951994500000003</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H37">
-        <v>0.67670042851267498</v>
+        <v>0.695123355</v>
       </c>
       <c r="I37">
-        <v>0.67421668191261697</v>
+        <v>0.69455171000000004</v>
       </c>
       <c r="J37">
-        <v>0.67317965238968402</v>
+        <v>0.69330205300000003</v>
       </c>
       <c r="K37">
-        <v>0.67067805834774497</v>
+        <v>0.69248259099999998</v>
       </c>
       <c r="L37">
-        <v>0.67004296630276405</v>
+        <v>0.69227275300000002</v>
       </c>
       <c r="M37">
-        <v>0.67004778496016604</v>
+        <v>0.69074087200000001</v>
       </c>
       <c r="N37">
-        <v>0.67000366128060895</v>
+        <v>0.69048457399999996</v>
+      </c>
+      <c r="O37">
+        <v>0.68891175299999996</v>
+      </c>
+      <c r="P37">
+        <v>0.65598191699999997</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.67344034221895399</v>
+        <v>0.68005852600000005</v>
       </c>
       <c r="B38">
-        <v>6.9813809027046599E-3</v>
+        <v>1.2319102E-2</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>0.68560664461408705</v>
-      </c>
-      <c r="E38" t="s">
-        <v>55</v>
+        <v>0.67901725400000001</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H38">
-        <v>0.67320700126800803</v>
+        <v>0.68026774499999998</v>
       </c>
       <c r="I38">
-        <v>0.671806917516656</v>
+        <v>0.675478896</v>
       </c>
       <c r="J38">
-        <v>0.66997127554246605</v>
+        <v>0.67319232500000004</v>
       </c>
       <c r="K38">
-        <v>0.66830120366849499</v>
+        <v>0.67708838599999999</v>
       </c>
       <c r="L38">
-        <v>0.66784385831713</v>
+        <v>0.67585059800000002</v>
       </c>
       <c r="M38">
-        <v>0.66778356418895601</v>
+        <v>0.67417804000000003</v>
       </c>
       <c r="N38">
-        <v>0.66780666740749794</v>
+        <v>0.67204723300000002</v>
+      </c>
+      <c r="O38">
+        <v>0.66997995099999996</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.67261551966174005</v>
+        <v>0.67849358494149503</v>
       </c>
       <c r="B39">
-        <v>6.7030464786053201E-3</v>
+        <v>7.9628319288427198E-3</v>
       </c>
       <c r="C39">
         <v>6</v>
       </c>
       <c r="D39">
-        <v>0.684678454542337</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
+        <v>0.68678986132410802</v>
       </c>
       <c r="F39">
         <v>9</v>
@@ -3512,42 +3468,39 @@
         <v>47</v>
       </c>
       <c r="H39">
-        <v>0.67261551966174005</v>
+        <v>0.67849358494149503</v>
       </c>
       <c r="I39">
-        <v>0.66976682475541005</v>
+        <v>0.675674277311333</v>
       </c>
       <c r="J39">
-        <v>0.668077975989124</v>
+        <v>0.67462763501852296</v>
       </c>
       <c r="K39">
-        <v>0.66720883999304603</v>
+        <v>0.67215608170210595</v>
       </c>
       <c r="L39">
-        <v>0.66667889204182795</v>
+        <v>0.67176894778005802</v>
       </c>
       <c r="M39">
-        <v>0.66672101456420096</v>
+        <v>0.67164079843242797</v>
       </c>
       <c r="N39">
-        <v>0.66666841904036001</v>
+        <v>0.67168291038768702</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.67218773718236202</v>
+        <v>0.67739091772071203</v>
       </c>
       <c r="B40">
-        <v>6.7480184987720798E-3</v>
+        <v>7.1933781901848803E-3</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
       <c r="D40">
-        <v>0.68492007508796005</v>
-      </c>
-      <c r="E40" t="s">
-        <v>55</v>
+        <v>0.68330061306538303</v>
       </c>
       <c r="F40">
         <v>9</v>
@@ -3556,471 +3509,289 @@
         <v>48</v>
       </c>
       <c r="H40">
-        <v>0.67183937569864305</v>
+        <v>0.67739091772071203</v>
       </c>
       <c r="I40">
-        <v>0.67056253058313098</v>
+        <v>0.67529369031920705</v>
       </c>
       <c r="J40">
-        <v>0.66873876098442697</v>
+        <v>0.67397370059578199</v>
       </c>
       <c r="K40">
-        <v>0.66778887043878798</v>
+        <v>0.67321774352256303</v>
       </c>
       <c r="L40">
-        <v>0.667392809847556</v>
+        <v>0.67287579337967796</v>
       </c>
       <c r="M40">
-        <v>0.66745455351858696</v>
+        <v>0.67282831841638702</v>
       </c>
       <c r="N40">
-        <v>0.66728849625893005</v>
+        <v>0.67281275486805703</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.67174975000000003</v>
+        <v>0.67520496489729898</v>
       </c>
       <c r="B41">
-        <v>8.1303810000000008E-3</v>
+        <v>7.4129560857959503E-3</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41">
-        <v>0.67528113199999995</v>
+        <v>0.68124685827301801</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H41">
-        <v>0.67174975000000003</v>
+        <v>0.67520496489729898</v>
       </c>
       <c r="I41">
-        <v>0.67094438999999995</v>
+        <v>0.67359891706026997</v>
       </c>
       <c r="J41">
-        <v>0.67018873700000003</v>
+        <v>0.67175951723528704</v>
       </c>
       <c r="K41">
-        <v>0.67000685299999996</v>
+        <v>0.67028948852116799</v>
       </c>
       <c r="L41">
-        <v>0.66957186099999999</v>
+        <v>0.66944235068247804</v>
       </c>
       <c r="M41">
-        <v>0.66880851900000005</v>
+        <v>0.66923126578119196</v>
       </c>
       <c r="N41">
-        <v>0.66795983000000003</v>
-      </c>
-      <c r="O41">
-        <v>0.66750834699999995</v>
-      </c>
-      <c r="P41">
-        <v>0.66721164799999999</v>
+        <v>0.66913552154249001</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.67135830299999999</v>
+        <v>0.67174975000000003</v>
       </c>
       <c r="B42">
-        <v>8.1950760000000008E-3</v>
+        <v>8.1303810000000008E-3</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>0.67475991199999996</v>
+        <v>0.67528113199999995</v>
       </c>
       <c r="F42">
         <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H42">
-        <v>0.67135830299999999</v>
+        <v>0.67174975000000003</v>
       </c>
       <c r="I42">
-        <v>0.66998532700000002</v>
+        <v>0.67094438999999995</v>
       </c>
       <c r="J42">
-        <v>0.66893085100000005</v>
+        <v>0.67018873700000003</v>
       </c>
       <c r="K42">
-        <v>0.668181731</v>
+        <v>0.67000685299999996</v>
       </c>
       <c r="L42">
-        <v>0.66806395799999996</v>
+        <v>0.66957186099999999</v>
       </c>
       <c r="M42">
-        <v>0.667040313</v>
+        <v>0.66880851900000005</v>
       </c>
       <c r="N42">
-        <v>0.66678565099999998</v>
+        <v>0.66795983000000003</v>
       </c>
       <c r="O42">
-        <v>0.66600355499999997</v>
-      </c>
-      <c r="P42">
-        <v>0.66565043599999996</v>
+        <v>0.66750834699999995</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.67082582800000001</v>
+        <v>0.67135830299999999</v>
       </c>
       <c r="B43">
-        <v>6.825645E-3</v>
+        <v>8.1950760000000008E-3</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>0.67596953599999998</v>
+        <v>0.67475991199999996</v>
       </c>
       <c r="F43">
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H43">
-        <v>0.67102315899999998</v>
+        <v>0.67135830299999999</v>
       </c>
       <c r="I43">
-        <v>0.66914180700000003</v>
+        <v>0.66998532700000002</v>
       </c>
       <c r="J43">
-        <v>0.66783953399999996</v>
+        <v>0.66893085100000005</v>
       </c>
       <c r="K43">
-        <v>0.66674858100000001</v>
+        <v>0.668181731</v>
       </c>
       <c r="L43">
-        <v>0.666117972</v>
+        <v>0.66806395799999996</v>
       </c>
       <c r="M43">
-        <v>0.66573651899999997</v>
+        <v>0.667040313</v>
       </c>
       <c r="N43">
-        <v>0.665123452</v>
+        <v>0.66678565099999998</v>
       </c>
       <c r="O43">
-        <v>0.66411830500000002</v>
-      </c>
-      <c r="P43">
-        <v>0.66322441399999998</v>
+        <v>0.66600355499999997</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.66792143900000001</v>
+        <v>0.67082582800000001</v>
       </c>
       <c r="B44">
-        <v>6.5962939999999999E-3</v>
+        <v>6.825645E-3</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>0.67233329900000005</v>
+        <v>0.67596953599999998</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H44">
-        <v>0.66792143900000001</v>
+        <v>0.67102315899999998</v>
       </c>
       <c r="I44">
-        <v>0.66237608599999998</v>
+        <v>0.66914180700000003</v>
       </c>
       <c r="J44">
-        <v>0.66047134500000004</v>
+        <v>0.66783953399999996</v>
       </c>
       <c r="K44">
-        <v>0.65772752400000001</v>
+        <v>0.66674858100000001</v>
       </c>
       <c r="L44">
-        <v>0.65761240099999996</v>
+        <v>0.666117972</v>
       </c>
       <c r="M44">
-        <v>0.65736049799999996</v>
+        <v>0.66573651899999997</v>
       </c>
       <c r="N44">
-        <v>0.65680310200000003</v>
+        <v>0.665123452</v>
       </c>
       <c r="O44">
-        <v>0.65646406700000004</v>
-      </c>
-      <c r="P44">
-        <v>0.65598191699999997</v>
+        <v>0.66411830500000002</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.648778049792057</v>
+        <v>0.66792143900000001</v>
       </c>
       <c r="B45">
-        <v>6.23209581911216E-3</v>
+        <v>6.5962939999999999E-3</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>0.66318831980442405</v>
-      </c>
-      <c r="E45" t="s">
-        <v>55</v>
+        <v>0.67233329900000005</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H45">
-        <v>0.64878847452369504</v>
+        <v>0.66792143900000001</v>
       </c>
       <c r="I45">
-        <v>0.64787125672733503</v>
+        <v>0.66237608599999998</v>
       </c>
       <c r="J45">
-        <v>0.645398503940391</v>
+        <v>0.66047134500000004</v>
       </c>
       <c r="K45">
-        <v>0.64291189290988804</v>
+        <v>0.65772752400000001</v>
       </c>
       <c r="L45">
-        <v>0.64182850416321002</v>
+        <v>0.65761240099999996</v>
       </c>
       <c r="M45">
-        <v>0.64135101979798204</v>
+        <v>0.65736049799999996</v>
       </c>
       <c r="N45">
-        <v>0.64133832079202402</v>
+        <v>0.65680310200000003</v>
+      </c>
+      <c r="O45">
+        <v>0.65646406700000004</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.63040107640959997</v>
+        <v>0.46831827774432699</v>
       </c>
       <c r="B46">
-        <v>6.2030605789847801E-3</v>
+        <v>5.3924980935926197E-3</v>
       </c>
       <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>0.47696613104978303</v>
+      </c>
+      <c r="F46">
         <v>9</v>
-      </c>
-      <c r="D46">
-        <v>0.64180415523965395</v>
-      </c>
-      <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
       </c>
       <c r="H46">
-        <v>0.63040107640959997</v>
+        <v>0.46831827774432699</v>
       </c>
       <c r="I46">
-        <v>0.62768417270219401</v>
+        <v>0.46758750412155298</v>
       </c>
       <c r="J46">
-        <v>0.62600835965583401</v>
+        <v>0.464665607081236</v>
       </c>
       <c r="K46">
-        <v>0.62533381965856005</v>
+        <v>0.463382626169837</v>
       </c>
       <c r="L46">
-        <v>0.62530989068531295</v>
+        <v>0.46296297841440598</v>
       </c>
       <c r="M46">
-        <v>0.62528760190314403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.62965837566696203</v>
-      </c>
-      <c r="B47">
-        <v>6.5162670223296703E-3</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>0.639517034584001</v>
-      </c>
-      <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47">
-        <v>0.62965837566696203</v>
-      </c>
-      <c r="I47">
-        <v>0.62753178558759604</v>
-      </c>
-      <c r="J47">
-        <v>0.62881648249611799</v>
-      </c>
-      <c r="K47">
-        <v>0.627262420585041</v>
-      </c>
-      <c r="L47">
-        <v>0.626697534121333</v>
-      </c>
-      <c r="M47">
-        <v>0.62630741075337604</v>
-      </c>
-      <c r="N47">
-        <v>0.62628453118969796</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.62811168579079102</v>
-      </c>
-      <c r="B48">
-        <v>6.3559633389466703E-3</v>
-      </c>
-      <c r="C48">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>0.63844255343352296</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48">
-        <v>0.62811168579079102</v>
-      </c>
-      <c r="I48">
-        <v>0.62567463274670099</v>
-      </c>
-      <c r="J48">
-        <v>0.62400601850626602</v>
-      </c>
-      <c r="K48">
-        <v>0.62361550700443402</v>
-      </c>
-      <c r="L48">
-        <v>0.62355796352609705</v>
-      </c>
-      <c r="M48">
-        <v>0.62355249587931205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0.62163394863288002</v>
-      </c>
-      <c r="B49">
-        <v>5.9025802775291899E-3</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>0.63124513755802203</v>
-      </c>
-      <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49">
-        <v>0.62163394863288002</v>
-      </c>
-      <c r="I49">
-        <v>0.61914846671958101</v>
-      </c>
-      <c r="J49">
-        <v>0.61759975485732499</v>
-      </c>
-      <c r="K49">
-        <v>0.61704015565822901</v>
-      </c>
-      <c r="L49">
-        <v>0.61646927523526995</v>
-      </c>
-      <c r="M49">
-        <v>0.61655837056500795</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>0.57820263194773802</v>
-      </c>
-      <c r="B50">
-        <v>4.89509011458838E-3</v>
-      </c>
-      <c r="C50">
-        <v>13</v>
-      </c>
-      <c r="D50">
-        <v>0.58667858058049405</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50">
-        <v>0.57820263194773802</v>
-      </c>
-      <c r="I50">
-        <v>0.57727272860408696</v>
-      </c>
-      <c r="J50">
-        <v>0.57688254742113898</v>
-      </c>
-      <c r="K50">
-        <v>0.57652502054889498</v>
-      </c>
-      <c r="L50">
-        <v>0.57647448891142605</v>
-      </c>
-      <c r="M50">
-        <v>0.57659338084892198</v>
+        <v>0.462849463282132</v>
+      </c>
+      <c r="N46">
+        <v>0.46300245582225402</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O50" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O50">
-      <sortCondition descending="1" ref="A1:A50"/>
+  <autoFilter ref="A1:O37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
+      <sortCondition descending="1" ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
